--- a/Data/GP2_SENSORY.xlsx
+++ b/Data/GP2_SENSORY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Guinea-Pig-data_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B683CAA1-29E5-43B3-BE9C-68613B0C8444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C69D6B-A3DB-43E0-904B-18897D152237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B611C2BE-A31E-40B5-B6DB-79D5DAECE073}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{B611C2BE-A31E-40B5-B6DB-79D5DAECE073}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,12 +211,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -231,9 +237,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -572,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E04692-655F-4A2A-BC7C-A03A7998F0FB}">
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -719,7 +728,7 @@
       <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -742,7 +751,7 @@
       <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -754,7 +763,7 @@
       <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -789,7 +798,7 @@
       <c r="I6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -1419,7 +1428,7 @@
       <c r="I24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -1454,7 +1463,7 @@
       <c r="I25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -2329,7 +2338,7 @@
       <c r="I50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K50" s="1" t="s">
@@ -2364,7 +2373,7 @@
       <c r="I51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K51" s="1" t="s">
@@ -2714,7 +2723,7 @@
       <c r="I61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K61" s="1" t="s">
@@ -2749,7 +2758,7 @@
       <c r="I62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K62" s="1" t="s">
@@ -3519,7 +3528,7 @@
       <c r="I84" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="J84" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K84" s="1" t="s">
@@ -3554,7 +3563,7 @@
       <c r="I85" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="J85" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K85" s="1" t="s">
@@ -3904,7 +3913,7 @@
       <c r="I95" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="J95" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K95" s="1" t="s">
@@ -3939,7 +3948,7 @@
       <c r="I96" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="J96" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K96" s="1" t="s">
@@ -4385,7 +4394,7 @@
       <c r="F109" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G109" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H109" s="1" t="s">
@@ -4455,7 +4464,7 @@
       <c r="F111" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G111" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H111" s="1" t="s">
@@ -4490,7 +4499,7 @@
       <c r="F112" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="G112" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H112" s="1" t="s">
@@ -4639,7 +4648,7 @@
       <c r="I116" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J116" s="1" t="s">
+      <c r="J116" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K116" s="1" t="s">
@@ -4674,7 +4683,7 @@
       <c r="I117" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J117" s="1" t="s">
+      <c r="J117" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K117" s="1" t="s">
@@ -5024,7 +5033,7 @@
       <c r="I127" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J127" s="1" t="s">
+      <c r="J127" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K127" s="1" t="s">
@@ -5059,7 +5068,7 @@
       <c r="I128" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J128" s="1" t="s">
+      <c r="J128" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K128" s="1" t="s">
